--- a/Lesson6/Book.xlsx
+++ b/Lesson6/Book.xlsx
@@ -1,76 +1,118 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Excel\Lesson6\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Задача1" sheetId="4" r:id="rId1"/>
     <sheet name="Задача2" sheetId="5" r:id="rId2"/>
+    <sheet name="Задание3" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Задание3!$B$6,Задание3!$C$6,Задание3!$D$6</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Задача1!$C$22,Задача1!$D$22,Задача1!$E$22</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Задание3!$B$6</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Задача1!$C$22</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Задание3!$C$6</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Задача1!$D$22</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">Задание3!$D$6</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Задача1!$E$22</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">Задание3!$E$3</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Задача1!$F$19</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">Задание3!$E$4</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">Задача1!$F$20</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">5</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Задание3!$E$9</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Задача1!$C$27</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">Задание3!$B$5</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Задача1!$C$21</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">Задание3!$C$5</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Задача1!$D$21</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">Задание3!$D$5</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">Задача1!$E$21</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">Задание3!$B$11</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">13000</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">Задание3!$B$12</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">3000</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Прибыль</t>
   </si>
@@ -118,18 +160,56 @@
   </si>
   <si>
     <t>заполняемость</t>
+  </si>
+  <si>
+    <t>Мышь</t>
+  </si>
+  <si>
+    <t>Клавиатура</t>
+  </si>
+  <si>
+    <t>Джойстик</t>
+  </si>
+  <si>
+    <t>Прибыль/единица</t>
+  </si>
+  <si>
+    <t>Рабочее время/единица</t>
+  </si>
+  <si>
+    <t>Машинное время/единица</t>
+  </si>
+  <si>
+    <t>Ежемесячный спрос</t>
+  </si>
+  <si>
+    <t>Количество продукции</t>
+  </si>
+  <si>
+    <t>Время рабочее</t>
+  </si>
+  <si>
+    <t>Машинное время</t>
+  </si>
+  <si>
+    <t>Общее рабочее время</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;р.&quot;"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00[$р.-419]_-;\-* #,##0.00[$р.-419]_-;_-* &quot;-&quot;??[$р.-419]_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +226,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +244,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -198,13 +287,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -219,24 +321,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -545,7 +650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -555,34 +660,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="13">
         <v>50000000</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="13">
         <v>3500</v>
       </c>
       <c r="F2" s="2"/>
@@ -590,7 +693,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -602,7 +705,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -614,11 +717,11 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>0.9</v>
       </c>
       <c r="E5" s="9"/>
@@ -626,48 +729,48 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="13">
         <f>B2*B3*B4*B5*B6-B1</f>
         <v>2249500000</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>0.7</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>0.8</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>0.9</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>1</v>
       </c>
       <c r="C8" s="13">
@@ -682,9 +785,9 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="12">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="11">
         <v>2</v>
       </c>
       <c r="C9" s="13">
@@ -698,9 +801,9 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="12">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="11">
         <v>3</v>
       </c>
       <c r="C10" s="13">
@@ -715,9 +818,9 @@
       <c r="F10" s="8"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="12">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="11">
         <v>4</v>
       </c>
       <c r="C11" s="13">
@@ -731,9 +834,9 @@
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="11">
         <v>5</v>
       </c>
       <c r="C12" s="13">
@@ -747,70 +850,70 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -841,75 +944,257 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="13">
+        <v>5000000</v>
+      </c>
+      <c r="C3" s="13">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1.8029583787938872E-2</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.21276220611729432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="13">
+        <f>PMT(B4,B2,B3)</f>
+        <v>-300000.000000928</v>
+      </c>
+      <c r="C5" s="13">
+        <f>PMT(C4/12,C2*12-1,C3)</f>
+        <v>-90000.000013984507</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3">
+        <v>800</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D2" s="3">
+        <v>900</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="10">
-        <v>5000000</v>
-      </c>
-      <c r="C3" s="10">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="E3" s="3">
+        <f>SUM(B3:D3)</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="17">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="E4" s="3">
+        <f>SUM(B4:D4)</f>
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3">
+        <v>15000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>29000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="17">
+        <v>15000</v>
+      </c>
+      <c r="C6" s="17">
+        <v>29000</v>
+      </c>
+      <c r="D6" s="17">
+        <v>11000</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="17">
+        <v>5000</v>
+      </c>
+      <c r="C7" s="17">
+        <v>5000</v>
+      </c>
+      <c r="D7" s="17">
+        <v>3000</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="17">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11">
-        <v>0.21282237195876669</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="10">
-        <f>PMT(B4/12,B2,B3)</f>
-        <v>-250000</v>
-      </c>
-      <c r="C5" s="10">
-        <f>PMT(C4/12,C2*12,C3)</f>
-        <v>-89999.999999973574</v>
+      <c r="E9" s="22">
+        <f>B2*B6+C2*C6+D2*D6</f>
+        <v>53800000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <f>B7+C7+D7</f>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <f>B8+C8+D8</f>
+        <v>3000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <scenarios current="0">
+    <scenario name="Максимальная примыль" count="3" user="Проторский Анатолий Витальевич" comment="Автор: Проторский Анатолий Витальевич , 12/26/2022">
+      <inputCells r="B6" val="0"/>
+      <inputCells r="C6" val="0"/>
+      <inputCells r="D6" val="0"/>
+    </scenario>
+  </scenarios>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>